--- a/lab9/сервер-сервер.xlsx
+++ b/lab9/сервер-сервер.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kidawr/Desktop/Сириус/hl-module1/lab9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08B5915-8747-9546-867A-573D0F66BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF2E5E2-CEE7-AC4D-BD0D-DC4B64E5F6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>14.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.39</c:v>
+                  <c:v>11.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,7 +676,7 @@
   <dimension ref="B4:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -717,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>17.600000000000001</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -731,7 +731,7 @@
         <v>7.77</v>
       </c>
       <c r="E7" s="1">
-        <v>13.39</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
